--- a/results/2022_reps_by_state(600,0).xlsx
+++ b/results/2022_reps_by_state(600,0).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F75029-92F7-1F4D-8907-F264F54AB0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC6CD7-020B-6145-BED0-18334515C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="8860" windowWidth="28040" windowHeight="17440" xr2:uid="{7E150A08-C2BE-0A48-A557-7E9007792798}"/>
+    <workbookView xWindow="2900" yWindow="6660" windowWidth="28040" windowHeight="17440" xr2:uid="{7E150A08-C2BE-0A48-A557-7E9007792798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_2022_reps_by_state_600_0" localSheetId="0">Sheet1!$A$1:$J$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>XX</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -274,12 +277,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,21 +304,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -623,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF685E-A53D-6E4B-A253-ED27B6175F0E}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,10 +664,13 @@
     <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,8 +701,21 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="8"/>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -708,8 +746,22 @@
       <c r="J2" s="7">
         <v>558894.77777799999</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>L2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1.264E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2-I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,19 +781,33 @@
         <v>736081</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>4.9637000000000001E-2</v>
+        <v>0.45036300000000001</v>
       </c>
       <c r="J3" s="7">
-        <v>368040.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>736081</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="0">L3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.45036300000000001</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O51" si="1">N3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -772,8 +838,22 @@
       <c r="J4" s="7">
         <v>550686.38461499999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.7501999999999999E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,8 +884,22 @@
       <c r="J5" s="7">
         <v>602751.19999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.11246299999999999</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>2.492599999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -825,19 +919,33 @@
         <v>761091.48076900002</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>1.384E-3</v>
+        <v>4.0930000000000003E-3</v>
       </c>
       <c r="J6" s="7">
-        <v>557419.11267599999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>549677.18055599998</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4.0930000000000003E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -868,8 +976,22 @@
       <c r="J7" s="7">
         <v>578217.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.4930999999999997E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -889,19 +1011,33 @@
         <v>721659.6</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="5">
-        <v>7.8192999999999999E-2</v>
+        <v>6.7650000000000002E-3</v>
       </c>
       <c r="J8" s="7">
-        <v>601383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>515471.142857</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.13609299999999999</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.129328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -932,8 +1068,22 @@
       <c r="J9" s="7">
         <v>495418.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6.3506999999999994E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,8 +1114,22 @@
       <c r="J10" s="7">
         <v>553090.43589700002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3.555E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -996,8 +1160,22 @@
       <c r="J11" s="7">
         <v>564488.105263</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3.2560000000000002E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1028,8 +1206,22 @@
       <c r="J12" s="7">
         <v>486712.33333300002</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2.0007E-2</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1060,8 +1252,22 @@
       <c r="J13" s="7">
         <v>613792.33333299996</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.9292E-2</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1092,8 +1298,22 @@
       <c r="J14" s="7">
         <v>557510.39130400005</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5.6210000000000003E-2</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3479000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1124,8 +1344,22 @@
       <c r="J15" s="7">
         <v>565856.66666700004</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2.4108999999999998E-2</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1156,8 +1390,22 @@
       <c r="J16" s="7">
         <v>532067.66666700004</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.103811</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0955000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1188,8 +1436,22 @@
       <c r="J17" s="7">
         <v>588173</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2.7507E-2</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1220,8 +1482,22 @@
       <c r="J18" s="7">
         <v>563667.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3.5077999999999998E-2</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1252,8 +1528,22 @@
       <c r="J19" s="7">
         <v>582683.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3.7482000000000001E-2</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1284,8 +1574,22 @@
       <c r="J20" s="7">
         <v>454527.33333300002</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>8.3761000000000002E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1316,8 +1620,22 @@
       <c r="J21" s="7">
         <v>562298</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1.5254E-2</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1348,8 +1666,22 @@
       <c r="J22" s="7">
         <v>541036.07692300004</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.8811999999999999E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,8 +1712,22 @@
       <c r="J23" s="7">
         <v>560246.77777799999</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1.1849E-2</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1412,8 +1758,22 @@
       <c r="J24" s="7">
         <v>570975.19999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1.013E-2</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1444,8 +1804,22 @@
       <c r="J25" s="7">
         <v>592782.80000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>4.3952999999999999E-2</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1476,8 +1850,22 @@
       <c r="J26" s="7">
         <v>560025.54545500001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3.0051999999999999E-2</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1497,19 +1885,33 @@
         <v>542703.5</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" s="5">
-        <v>5.9769000000000003E-2</v>
+        <v>0.10689800000000001</v>
       </c>
       <c r="J27" s="7">
-        <v>361802.33333300002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>542703.5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.39310200000000001</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28620400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1540,8 +1942,22 @@
       <c r="J28" s="7">
         <v>490833.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.11232300000000001</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1572,8 +1988,22 @@
       <c r="J29" s="7">
         <v>518077</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1.7444999999999999E-2</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1604,8 +2034,22 @@
       <c r="J30" s="7">
         <v>459696.33333300002</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.11704299999999999</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,8 +2080,22 @@
       <c r="J31" s="7">
         <v>546734.88235299999</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1668,8 +2126,22 @@
       <c r="J32" s="7">
         <v>530055</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.199353</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.148706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1689,19 +2161,33 @@
         <v>777528.88461499999</v>
       </c>
       <c r="G33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>20</v>
       </c>
       <c r="I33" s="5">
-        <v>3.483E-3</v>
+        <v>1.1532000000000001E-2</v>
       </c>
       <c r="J33" s="7">
-        <v>561548.63888900005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>546371.64864899998</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1.1532000000000001E-2</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1732,8 +2218,22 @@
       <c r="J34" s="7">
         <v>550207.78947399999</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>4.7629999999999999E-3</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1753,19 +2253,33 @@
         <v>779702</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>0.15082400000000001</v>
+        <v>0.34917599999999999</v>
       </c>
       <c r="J35" s="7">
-        <v>389851</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>779702</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.34917599999999999</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1796,8 +2310,22 @@
       <c r="J36" s="7">
         <v>562326.09523800004</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>7.143E-3</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1828,8 +2356,22 @@
       <c r="J37" s="7">
         <v>566216.571429</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>3.3702000000000003E-2</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,8 +2402,22 @@
       <c r="J38" s="7">
         <v>530187.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>4.3098999999999998E-2</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1881,19 +2437,33 @@
         <v>765402.58823500003</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="5">
-        <v>6.7980000000000002E-3</v>
+        <v>1.4940999999999999E-2</v>
       </c>
       <c r="J39" s="7">
-        <v>565732.34782599995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>542160.16666700004</v>
+      </c>
+      <c r="L39">
+        <v>12</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1.4940999999999999E-2</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1913,19 +2483,33 @@
         <v>549081.5</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
-        <v>9.3145000000000006E-2</v>
+        <v>7.3522000000000004E-2</v>
       </c>
       <c r="J40" s="7">
-        <v>366054.33333300002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>549081.5</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.42647800000000002</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35295600000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1956,8 +2540,22 @@
       <c r="J41" s="7">
         <v>569412.44444400002</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>5.4227999999999998E-2</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1988,8 +2586,22 @@
       <c r="J42" s="7">
         <v>443885</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.20000100000000001</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2009,19 +2621,33 @@
         <v>768544.11111099995</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43" s="5">
-        <v>1.2765E-2</v>
+        <v>3.8406000000000003E-2</v>
       </c>
       <c r="J43" s="7">
-        <v>576408.08333299996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>532069</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3.8406000000000003E-2</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2041,19 +2667,33 @@
         <v>767981.31578900001</v>
       </c>
       <c r="G44">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I44" s="5">
-        <v>6.417E-3</v>
+        <v>4.4679999999999997E-3</v>
       </c>
       <c r="J44" s="7">
-        <v>561217.11538500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>550628.11320799997</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>4.4679999999999997E-3</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2084,8 +2724,22 @@
       <c r="J45" s="7">
         <v>545875.33333299996</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>4.3540000000000002E-3</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2105,19 +2759,33 @@
         <v>643503</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" s="5">
-        <v>0.19242899999999999</v>
+        <v>0.30757099999999998</v>
       </c>
       <c r="J46" s="7">
-        <v>321751.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>643503</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.30757099999999998</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2148,8 +2816,22 @@
       <c r="J47" s="7">
         <v>540908.875</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1.8166999999999999E-2</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2180,8 +2862,22 @@
       <c r="J48" s="7">
         <v>551139</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>9.8080000000000007E-3</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2212,8 +2908,22 @@
       <c r="J49" s="7">
         <v>598348.33333299996</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>9.0910000000000001E-3</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2244,8 +2954,22 @@
       <c r="J50" s="7">
         <v>536133.90909099998</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1.0467000000000001E-2</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,19 +2989,38 @@
         <v>577719</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="5">
-        <v>0.236704</v>
+        <v>0.26329599999999997</v>
       </c>
       <c r="J51" s="7">
-        <v>288859.5</v>
+        <v>577719</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.26329599999999997</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M51">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/2022_reps_by_state(600,0).xlsx
+++ b/results/2022_reps_by_state(600,0).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC6CD7-020B-6145-BED0-18334515C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7128166A-90F2-D04E-AD82-BCC9815FA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="6660" windowWidth="28040" windowHeight="17440" xr2:uid="{7E150A08-C2BE-0A48-A557-7E9007792798}"/>
+    <workbookView xWindow="8960" yWindow="5300" windowWidth="28040" windowHeight="17440" xr2:uid="{7E150A08-C2BE-0A48-A557-7E9007792798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" sqref="A1:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>8.7537000000000004E-2</v>
+        <v>0.11246299999999999</v>
       </c>
       <c r="J5" s="7">
         <v>602751.19999999995</v>
@@ -889,14 +889,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
         <v>0.11246299999999999</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>2.492599999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1014,10 +1014,10 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="5">
-        <v>6.7650000000000002E-3</v>
+        <v>0.13609299999999999</v>
       </c>
       <c r="J8" s="7">
         <v>515471.142857</v>
@@ -1027,14 +1027,14 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
         <v>0.13609299999999999</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="1"/>
-        <v>0.129328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1290,10 +1290,10 @@
         <v>23</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="5">
-        <v>1.2730999999999999E-2</v>
+        <v>5.6210000000000003E-2</v>
       </c>
       <c r="J14" s="7">
         <v>557510.39130400005</v>
@@ -1303,14 +1303,14 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5">
         <v>5.6210000000000003E-2</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>4.3479000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1382,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5">
-        <v>6.2855999999999995E-2</v>
+        <v>0.103811</v>
       </c>
       <c r="J16" s="7">
         <v>532067.66666700004</v>
@@ -1395,14 +1395,14 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
         <v>0.103811</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="1"/>
-        <v>4.0955000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1888,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>0.10689800000000001</v>
+        <v>0.39310200000000001</v>
       </c>
       <c r="J27" s="7">
         <v>542703.5</v>
@@ -1901,14 +1901,14 @@
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="5">
         <v>0.39310200000000001</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="1"/>
-        <v>0.28620400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2118,10 +2118,10 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="5">
-        <v>5.0646999999999998E-2</v>
+        <v>0.199353</v>
       </c>
       <c r="J32" s="7">
         <v>530055</v>
@@ -2131,14 +2131,14 @@
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="5">
         <v>0.199353</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="1"/>
-        <v>0.148706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="5">
-        <v>7.3522000000000004E-2</v>
+        <v>0.42647800000000002</v>
       </c>
       <c r="J40" s="7">
         <v>549081.5</v>
@@ -2499,14 +2499,14 @@
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="5">
         <v>0.42647800000000002</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="1"/>
-        <v>0.35295600000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
